--- a/data/trans_bre/POLIPATOLOGIA_Lim_2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_Lim_2-Estudios-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>9.95828556756501</v>
+        <v>9.807591254150489</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>13.68163581834575</v>
+        <v>13.73670525470643</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18.29095046579535</v>
+        <v>18.26400938392951</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.2520414881768586</v>
+        <v>0.2454656299912601</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4195466460304578</v>
+        <v>0.4212843845500073</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4842937027568427</v>
+        <v>0.4778382347372261</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>18.64501649283399</v>
+        <v>18.49315104614309</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>23.23737143726017</v>
+        <v>23.27379484060069</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27.35926093859103</v>
+        <v>27.42928168518514</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.5388970105236893</v>
+        <v>0.532199512658271</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8374704521144762</v>
+        <v>0.8614935200423625</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8704843823639192</v>
+        <v>0.8753212675915342</v>
       </c>
     </row>
     <row r="7">
@@ -709,7 +709,7 @@
         <v>0.6897275547789963</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6638015271933646</v>
+        <v>0.6638015271933643</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.944409379529204</v>
+        <v>5.057988145314863</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.3415559219402</v>
+        <v>5.332014962042943</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8.054410301211636</v>
+        <v>7.943800636676378</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.4560647893117483</v>
+        <v>0.4772458382178488</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4374048205353223</v>
+        <v>0.4456416148769958</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4731176813880436</v>
+        <v>0.4785025874673921</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.687969535939375</v>
+        <v>9.845967804435315</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.800601824066552</v>
+        <v>9.989685130745475</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.80646276717878</v>
+        <v>12.74058893060296</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.100990421576975</v>
+        <v>1.137497694341305</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9843311092671914</v>
+        <v>0.9863215642682484</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8834338178016734</v>
+        <v>0.8935559612916599</v>
       </c>
     </row>
     <row r="10">
@@ -791,7 +791,7 @@
         <v>0.1630183494203214</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7979283500322595</v>
+        <v>0.7979283500322599</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5404895341257815</v>
+        <v>0.6561357775013347</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.39304535529813</v>
+        <v>-2.568673751615609</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.61631616271193</v>
+        <v>6.200284378452119</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.03338389982932341</v>
+        <v>0.05614737477433429</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2186955379954582</v>
+        <v>-0.2590632766507056</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4320703270475058</v>
+        <v>0.4124292603140107</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.168331412442683</v>
+        <v>8.564134845898055</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.43034092195739</v>
+        <v>5.394339375524645</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.93679108141226</v>
+        <v>13.6184574144993</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.662747338377087</v>
+        <v>1.75932413262766</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.790587569373683</v>
+        <v>0.7233273011151685</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.304072354336252</v>
+        <v>1.228938690979327</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>9.940316755407483</v>
+        <v>10.2718366146747</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>8.863282506467367</v>
+        <v>8.859708946602664</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12.31949018237798</v>
+        <v>12.38281468216913</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.5427858881847292</v>
+        <v>0.5742177056276847</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5558025446969596</v>
+        <v>0.5502918656244645</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6365487388220959</v>
+        <v>0.6370016047585032</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.061561830644</v>
+        <v>14.27812583772457</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.78973907115796</v>
+        <v>12.70796582883683</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15.98864988849143</v>
+        <v>15.9665113792068</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8791231198051987</v>
+        <v>0.903945515668378</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9210788972867091</v>
+        <v>0.8980673856074621</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9290980055451417</v>
+        <v>0.9468759576088122</v>
       </c>
     </row>
     <row r="16">
